--- a/wxdgaming.game.basic/src/main/cfg/任务成就.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/任务成就.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="q_task" sheetId="4" r:id="rId1"/>
@@ -278,7 +278,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>List&lt;wxdgaming.boot2.core.lang.condition.Condition&gt;</t>
+    <t>List&lt;wxdgaming.spring.boot.core.lang.condition.Condition&gt;</t>
   </si>
   <si>
     <t>List&lt;wxdgaming.game.bean.goods.ItemCfg&gt;</t>
@@ -566,7 +566,7 @@
     <t>condition</t>
   </si>
   <si>
-    <t>wxdgaming.boot2.core.lang.condition.Condition</t>
+    <t>wxdgaming.spring.boot.core.lang.condition.Condition</t>
   </si>
   <si>
     <t>成就类型</t>
@@ -1681,8 +1681,8 @@
   <sheetPr/>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2649,8 +2649,8 @@
   <sheetPr/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
